--- a/data/quiz.xlsx
+++ b/data/quiz.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="132" yWindow="564" windowWidth="22716" windowHeight="8940"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -31,37 +31,37 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>TC-001-001-1</t>
+  </si>
+  <si>
+    <t>Normal Flow</t>
+  </si>
+  <si>
     <t>https://school.moodledemo.net/mod/quiz/view.php?id=1177</t>
   </si>
   <si>
     <t>[0, 1, 1, 0, 3, 3, 1, 2, 0, 2]</t>
   </si>
   <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>TC-001-001-2</t>
+  </si>
+  <si>
     <t>https://school.moodledemo.net/mod/quiz/view.php?id=1173</t>
   </si>
   <si>
     <t>[1, 2, 3, 2, 1, 0, 2, 3, 0, 1]</t>
-  </si>
-  <si>
-    <t>Normal Flow</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>TC-001-001-2</t>
-  </si>
-  <si>
-    <t>TC-001-001-1</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,67 +432,73 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="str">
-        <f>IF((F2=G2), "YES", "NO")</f>
-        <v>NO</v>
+        <f>IF((F2=G2), "Passed", "Failed")</f>
+        <v>Passed</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
       <c r="H3" t="str">
-        <f>IF((F3=G3), "YES", "NO")</f>
-        <v>NO</v>
+        <f>IF((F3=G3), "Passed", "Failed")</f>
+        <v>Passed</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/quiz.xlsx
+++ b/data/quiz.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -401,7 +401,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,15 +457,12 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="str">
         <f>IF((F2=G2), "Passed", "Failed")</f>
-        <v>Passed</v>
+        <v>Failed</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -484,15 +481,12 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
       <c r="H3" t="str">
         <f>IF((F3=G3), "Passed", "Failed")</f>
-        <v>Passed</v>
+        <v>Failed</v>
       </c>
     </row>
   </sheetData>
